--- a/biology/Zoologie/Hyalinobatrachium_taylori/Hyalinobatrachium_taylori.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium_taylori/Hyalinobatrachium_taylori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium taylori, le Centrolène de Taylor ou Centrolenelle de Taylor, est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium taylori, le Centrolène de Taylor ou Centrolenelle de Taylor, est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Harrison Taylor[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Harrison Taylor.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de 350 à 1 850 m d'altitude[1],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de 350 à 1 850 m d'altitude, :
 dans le sud-est du Venezuela ;
 au Guyana ;
 au Suriname ;
 en Guyane ;
 au Brésil.
-Cependant, les individus présents au Venezuela pourrait appartenir à une autre espèce proche, non nommée[4].
+Cependant, les individus présents au Venezuela pourrait appartenir à une autre espèce proche, non nommée.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dos est vert foncé avec des taches vert pâle portant généralement un point blanche au centre de chaque tache (des iridophores), les os sont de couleur verte[4].
-Les mâles vont appeler sur la face supérieure des feuilles, et le comportement de combat, s'il existe, est inconnu. Les pontes sont déposées sur la face inférieure des feuilles, et aucun comportement de soin parental n'a été observé chez le mâle[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dos est vert foncé avec des taches vert pâle portant généralement un point blanche au centre de chaque tache (des iridophores), les os sont de couleur verte.
+Les mâles vont appeler sur la face supérieure des feuilles, et le comportement de combat, s'il existe, est inconnu. Les pontes sont déposées sur la face inférieure des feuilles, et aucun comportement de soin parental n'a été observé chez le mâle.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Goin, 1968 "1967" : A new centrolenid frog from Guyana. Quarterly Journal of the Florida Academy of Sciences, vol. 30, p. 115-118 (texte intégral).</t>
         </is>
